--- a/natmiOut/OldD2/LR-pairs_lrc2p/Selplg-Sele.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Selplg-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.9893826083434</v>
+        <v>3.7825415</v>
       </c>
       <c r="H2">
-        <v>2.9893826083434</v>
+        <v>7.565083</v>
       </c>
       <c r="I2">
-        <v>0.01705625391955307</v>
+        <v>0.02134139439091907</v>
       </c>
       <c r="J2">
-        <v>0.01705625391955307</v>
+        <v>0.0143760362842082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="N2">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="O2">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P2">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q2">
-        <v>38.25826239754606</v>
+        <v>56.96560454581</v>
       </c>
       <c r="R2">
-        <v>38.25826239754606</v>
+        <v>227.86241818324</v>
       </c>
       <c r="S2">
-        <v>0.01246380589490439</v>
+        <v>0.01591454041412608</v>
       </c>
       <c r="T2">
-        <v>0.01246380589490439</v>
+        <v>0.00951110826525222</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.9893826083434</v>
+        <v>3.7825415</v>
       </c>
       <c r="H3">
-        <v>2.9893826083434</v>
+        <v>7.565083</v>
       </c>
       <c r="I3">
-        <v>0.01705625391955307</v>
+        <v>0.02134139439091907</v>
       </c>
       <c r="J3">
-        <v>0.01705625391955307</v>
+        <v>0.0143760362842082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N3">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="O3">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P3">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q3">
-        <v>0.203838409122953</v>
+        <v>0.4176430154866666</v>
       </c>
       <c r="R3">
-        <v>0.203838409122953</v>
+        <v>2.50585809292</v>
       </c>
       <c r="S3">
-        <v>6.640663234610339E-05</v>
+        <v>0.000116677365256346</v>
       </c>
       <c r="T3">
-        <v>6.640663234610339E-05</v>
+        <v>0.0001045959566704607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.9893826083434</v>
+        <v>3.7825415</v>
       </c>
       <c r="H4">
-        <v>2.9893826083434</v>
+        <v>7.565083</v>
       </c>
       <c r="I4">
-        <v>0.01705625391955307</v>
+        <v>0.02134139439091907</v>
       </c>
       <c r="J4">
-        <v>0.01705625391955307</v>
+        <v>0.0143760362842082</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N4">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="O4">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P4">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q4">
-        <v>13.89290563965376</v>
+        <v>0.2064322023625</v>
       </c>
       <c r="R4">
-        <v>13.89290563965376</v>
+        <v>1.238593214175</v>
       </c>
       <c r="S4">
-        <v>0.004526041392302583</v>
+        <v>5.767117988949177E-05</v>
       </c>
       <c r="T4">
-        <v>0.004526041392302583</v>
+        <v>5.169959245825138E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.2334726315084</v>
+        <v>3.7825415</v>
       </c>
       <c r="H5">
-        <v>1.2334726315084</v>
+        <v>7.565083</v>
       </c>
       <c r="I5">
-        <v>0.007037714860288582</v>
+        <v>0.02134139439091907</v>
       </c>
       <c r="J5">
-        <v>0.007037714860288582</v>
+        <v>0.0143760362842082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.7980480955388</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N5">
-        <v>12.7980480955388</v>
+        <v>14.911546</v>
       </c>
       <c r="O5">
-        <v>0.7307469713860226</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P5">
-        <v>0.7307469713860226</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q5">
-        <v>15.78604206257531</v>
+        <v>18.80118052471967</v>
       </c>
       <c r="R5">
-        <v>15.78604206257531</v>
+        <v>112.807083148318</v>
       </c>
       <c r="S5">
-        <v>0.005142788819634286</v>
+        <v>0.005252505431647162</v>
       </c>
       <c r="T5">
-        <v>0.005142788819634286</v>
+        <v>0.004708632469827263</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.2334726315084</v>
+        <v>1.571017333333333</v>
       </c>
       <c r="H6">
-        <v>1.2334726315084</v>
+        <v>4.713052</v>
       </c>
       <c r="I6">
-        <v>0.007037714860288582</v>
+        <v>0.008863802421106721</v>
       </c>
       <c r="J6">
-        <v>0.007037714860288582</v>
+        <v>0.008956280659625284</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0681874606997571</v>
+        <v>15.06014</v>
       </c>
       <c r="N6">
-        <v>0.0681874606997571</v>
+        <v>30.12028</v>
       </c>
       <c r="O6">
-        <v>0.003893389055962381</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P6">
-        <v>0.003893389055962381</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q6">
-        <v>0.084107366585205</v>
+        <v>23.65974098242667</v>
       </c>
       <c r="R6">
-        <v>0.084107366585205</v>
+        <v>141.95844589456</v>
       </c>
       <c r="S6">
-        <v>2.740056201603138E-05</v>
+        <v>0.006609846539060024</v>
       </c>
       <c r="T6">
-        <v>2.740056201603138E-05</v>
+        <v>0.005925427101297304</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,122 +844,122 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.2334726315084</v>
+        <v>1.571017333333333</v>
       </c>
       <c r="H7">
-        <v>1.2334726315084</v>
+        <v>4.713052</v>
       </c>
       <c r="I7">
-        <v>0.007037714860288582</v>
+        <v>0.008863802421106721</v>
       </c>
       <c r="J7">
-        <v>0.007037714860288582</v>
+        <v>0.008956280659625284</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.64741635977894</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N7">
-        <v>4.64741635977894</v>
+        <v>0.33124</v>
       </c>
       <c r="O7">
-        <v>0.2653596395580149</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P7">
-        <v>0.2653596395580149</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q7">
-        <v>5.732460887011717</v>
+        <v>0.1734612604977778</v>
       </c>
       <c r="R7">
-        <v>5.732460887011717</v>
+        <v>1.56115134448</v>
       </c>
       <c r="S7">
-        <v>0.001867525478638263</v>
+        <v>4.846005343903935E-05</v>
       </c>
       <c r="T7">
-        <v>0.001867525478638263</v>
+        <v>6.516335415984576E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>74.7867388588928</v>
+        <v>1.571017333333333</v>
       </c>
       <c r="H8">
-        <v>74.7867388588928</v>
+        <v>4.713052</v>
       </c>
       <c r="I8">
-        <v>0.4267040305354089</v>
+        <v>0.008863802421106721</v>
       </c>
       <c r="J8">
-        <v>0.4267040305354089</v>
+        <v>0.008956280659625284</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>12.7980480955388</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N8">
-        <v>12.7980480955388</v>
+        <v>0.163725</v>
       </c>
       <c r="O8">
-        <v>0.7307469713860226</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P8">
-        <v>0.7307469713860226</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q8">
-        <v>957.1242808246105</v>
+        <v>0.08573827096666668</v>
       </c>
       <c r="R8">
-        <v>957.1242808246105</v>
+        <v>0.7716444387000001</v>
       </c>
       <c r="S8">
-        <v>0.3118126779919589</v>
+        <v>2.395279027082091E-05</v>
       </c>
       <c r="T8">
-        <v>0.3118126779919589</v>
+        <v>3.22088822600554E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>74.7867388588928</v>
+        <v>1.571017333333333</v>
       </c>
       <c r="H9">
-        <v>74.7867388588928</v>
+        <v>4.713052</v>
       </c>
       <c r="I9">
-        <v>0.4267040305354089</v>
+        <v>0.008863802421106721</v>
       </c>
       <c r="J9">
-        <v>0.4267040305354089</v>
+        <v>0.008956280659625284</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0681874606997571</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N9">
-        <v>0.0681874606997571</v>
+        <v>14.911546</v>
       </c>
       <c r="O9">
-        <v>0.003893389055962381</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P9">
-        <v>0.003893389055962381</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q9">
-        <v>5.09951781680375</v>
+        <v>7.80876574426578</v>
       </c>
       <c r="R9">
-        <v>5.09951781680375</v>
+        <v>70.27889169839202</v>
       </c>
       <c r="S9">
-        <v>0.001661324802621599</v>
+        <v>0.002181543038336836</v>
       </c>
       <c r="T9">
-        <v>0.001661324802621599</v>
+        <v>0.002933481321908078</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>74.7867388588928</v>
+        <v>75.41654966666667</v>
       </c>
       <c r="H10">
-        <v>74.7867388588928</v>
+        <v>226.249649</v>
       </c>
       <c r="I10">
-        <v>0.4267040305354089</v>
+        <v>0.4255060598908617</v>
       </c>
       <c r="J10">
-        <v>0.4267040305354089</v>
+        <v>0.4299454696416905</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.64741635977894</v>
+        <v>15.06014</v>
       </c>
       <c r="N10">
-        <v>4.64741635977894</v>
+        <v>30.12028</v>
       </c>
       <c r="O10">
-        <v>0.2653596395580149</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P10">
-        <v>0.2653596395580149</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q10">
-        <v>347.5651136673338</v>
+        <v>1135.783796296953</v>
       </c>
       <c r="R10">
-        <v>347.5651136673338</v>
+        <v>6814.70277778172</v>
       </c>
       <c r="S10">
-        <v>0.1132300277408283</v>
+        <v>0.3173051049311985</v>
       </c>
       <c r="T10">
-        <v>0.1132300277408283</v>
+        <v>0.284449609688924</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>92.123317933218</v>
+        <v>75.41654966666667</v>
       </c>
       <c r="H11">
-        <v>92.123317933218</v>
+        <v>226.249649</v>
       </c>
       <c r="I11">
-        <v>0.5256198046363243</v>
+        <v>0.4255060598908617</v>
       </c>
       <c r="J11">
-        <v>0.5256198046363243</v>
+        <v>0.4299454696416905</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.7980480955388</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N11">
-        <v>12.7980480955388</v>
+        <v>0.33124</v>
       </c>
       <c r="O11">
-        <v>0.7307469713860226</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P11">
-        <v>0.7307469713860226</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q11">
-        <v>1178.998653629936</v>
+        <v>8.326992637195556</v>
       </c>
       <c r="R11">
-        <v>1178.998653629936</v>
+        <v>74.94293373476</v>
       </c>
       <c r="S11">
-        <v>0.3840950803385069</v>
+        <v>0.002326320626444158</v>
       </c>
       <c r="T11">
-        <v>0.3840950803385069</v>
+        <v>0.003128161116475649</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>92.123317933218</v>
+        <v>75.41654966666667</v>
       </c>
       <c r="H12">
-        <v>92.123317933218</v>
+        <v>226.249649</v>
       </c>
       <c r="I12">
-        <v>0.5256198046363243</v>
+        <v>0.4255060598908617</v>
       </c>
       <c r="J12">
-        <v>0.5256198046363243</v>
+        <v>0.4299454696416905</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.0681874606997571</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N12">
-        <v>0.0681874606997571</v>
+        <v>0.163725</v>
       </c>
       <c r="O12">
-        <v>0.003893389055962381</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P12">
-        <v>0.003893389055962381</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q12">
-        <v>6.281655121102531</v>
+        <v>4.115858198058334</v>
       </c>
       <c r="R12">
-        <v>6.281655121102531</v>
+        <v>37.042723782525</v>
       </c>
       <c r="S12">
-        <v>0.00204644239496815</v>
+        <v>0.001149851601752717</v>
       </c>
       <c r="T12">
-        <v>0.00204644239496815</v>
+        <v>0.001546184575519188</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>92.123317933218</v>
+        <v>75.41654966666667</v>
       </c>
       <c r="H13">
-        <v>92.123317933218</v>
+        <v>226.249649</v>
       </c>
       <c r="I13">
-        <v>0.5256198046363243</v>
+        <v>0.4255060598908617</v>
       </c>
       <c r="J13">
-        <v>0.5256198046363243</v>
+        <v>0.4299454696416905</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.64741635977894</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N13">
-        <v>4.64741635977894</v>
+        <v>14.911546</v>
       </c>
       <c r="O13">
-        <v>0.2653596395580149</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P13">
-        <v>0.2653596395580149</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q13">
-        <v>428.1354148799539</v>
+        <v>374.8591165052616</v>
       </c>
       <c r="R13">
-        <v>428.1354148799539</v>
+        <v>3373.732048547354</v>
       </c>
       <c r="S13">
-        <v>0.1394782819028492</v>
+        <v>0.1047247827314663</v>
       </c>
       <c r="T13">
-        <v>0.1394782819028492</v>
+        <v>0.1408215142607717</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.45723501082356</v>
+        <v>92.20254033333333</v>
       </c>
       <c r="H14">
-        <v>2.45723501082356</v>
+        <v>276.607621</v>
       </c>
       <c r="I14">
-        <v>0.0140200268000649</v>
+        <v>0.5202139294699846</v>
       </c>
       <c r="J14">
-        <v>0.0140200268000649</v>
+        <v>0.5256414498009485</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="N14">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="O14">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P14">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q14">
-        <v>31.44781185056172</v>
+        <v>1388.583165775647</v>
       </c>
       <c r="R14">
-        <v>31.44781185056172</v>
+        <v>8331.498994653881</v>
       </c>
       <c r="S14">
-        <v>0.01024509212289829</v>
+        <v>0.3879299287053222</v>
       </c>
       <c r="T14">
-        <v>0.01024509212289829</v>
+        <v>0.3477615553358573</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.45723501082356</v>
+        <v>92.20254033333333</v>
       </c>
       <c r="H15">
-        <v>2.45723501082356</v>
+        <v>276.607621</v>
       </c>
       <c r="I15">
-        <v>0.0140200268000649</v>
+        <v>0.5202139294699846</v>
       </c>
       <c r="J15">
-        <v>0.0140200268000649</v>
+        <v>0.5256414498009485</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N15">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="O15">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P15">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q15">
-        <v>0.1675526157305987</v>
+        <v>10.18038982000444</v>
       </c>
       <c r="R15">
-        <v>0.1675526157305987</v>
+        <v>91.62350838003999</v>
       </c>
       <c r="S15">
-        <v>5.458541890767196E-05</v>
+        <v>0.002844106132354478</v>
       </c>
       <c r="T15">
-        <v>5.458541890767196E-05</v>
+        <v>0.003824417886867233</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.45723501082356</v>
+        <v>92.20254033333333</v>
       </c>
       <c r="H16">
-        <v>2.45723501082356</v>
+        <v>276.607621</v>
       </c>
       <c r="I16">
-        <v>0.0140200268000649</v>
+        <v>0.5202139294699846</v>
       </c>
       <c r="J16">
-        <v>0.0140200268000649</v>
+        <v>0.5256414498009485</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N16">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="O16">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P16">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q16">
-        <v>11.41979418912299</v>
+        <v>5.031953638691667</v>
       </c>
       <c r="R16">
-        <v>11.41979418912299</v>
+        <v>45.287582748225</v>
       </c>
       <c r="S16">
-        <v>0.003720349258258931</v>
+        <v>0.001405782141407249</v>
       </c>
       <c r="T16">
-        <v>0.003720349258258931</v>
+        <v>0.001890329726262945</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.6759238332114</v>
+        <v>92.20254033333333</v>
       </c>
       <c r="H17">
-        <v>1.6759238332114</v>
+        <v>276.607621</v>
       </c>
       <c r="I17">
-        <v>0.009562169248360295</v>
+        <v>0.5202139294699846</v>
       </c>
       <c r="J17">
-        <v>0.009562169248360295</v>
+        <v>0.5256414498009485</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.7980480955388</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N17">
-        <v>12.7980480955388</v>
+        <v>14.911546</v>
       </c>
       <c r="O17">
-        <v>0.7307469713860226</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P17">
-        <v>0.7307469713860226</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q17">
-        <v>21.44855382189924</v>
+        <v>458.2941404991185</v>
       </c>
       <c r="R17">
-        <v>21.44855382189924</v>
+        <v>4124.647264492066</v>
       </c>
       <c r="S17">
-        <v>0.006987526218119846</v>
+        <v>0.1280341124909006</v>
       </c>
       <c r="T17">
-        <v>0.006987526218119846</v>
+        <v>0.172165146851961</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.6759238332114</v>
+        <v>2.559279333333333</v>
       </c>
       <c r="H18">
-        <v>1.6759238332114</v>
+        <v>7.677838</v>
       </c>
       <c r="I18">
-        <v>0.009562169248360295</v>
+        <v>0.01443965376432621</v>
       </c>
       <c r="J18">
-        <v>0.009562169248360295</v>
+        <v>0.01459030623620025</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0681874606997571</v>
+        <v>15.06014</v>
       </c>
       <c r="N18">
-        <v>0.0681874606997571</v>
+        <v>30.12028</v>
       </c>
       <c r="O18">
-        <v>0.003893389055962381</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P18">
-        <v>0.003893389055962381</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q18">
-        <v>0.1142769905128886</v>
+        <v>38.54310505910667</v>
       </c>
       <c r="R18">
-        <v>0.1142769905128886</v>
+        <v>231.25863035464</v>
       </c>
       <c r="S18">
-        <v>3.722924510282599E-05</v>
+        <v>0.01076782749941302</v>
       </c>
       <c r="T18">
-        <v>3.722924510282599E-05</v>
+        <v>0.009652868112757994</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.559279333333333</v>
+      </c>
+      <c r="H19">
+        <v>7.677838</v>
+      </c>
+      <c r="I19">
+        <v>0.01443965376432621</v>
+      </c>
+      <c r="J19">
+        <v>0.01459030623620025</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1104133333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.33124</v>
+      </c>
+      <c r="O19">
+        <v>0.005467185654279137</v>
+      </c>
+      <c r="P19">
+        <v>0.007275715962497773</v>
+      </c>
+      <c r="Q19">
+        <v>0.2825785621244444</v>
+      </c>
+      <c r="R19">
+        <v>2.54320705912</v>
+      </c>
+      <c r="S19">
+        <v>7.894426791308201E-05</v>
+      </c>
+      <c r="T19">
+        <v>0.000106154923980453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.559279333333333</v>
+      </c>
+      <c r="H20">
+        <v>7.677838</v>
+      </c>
+      <c r="I20">
+        <v>0.01443965376432621</v>
+      </c>
+      <c r="J20">
+        <v>0.01459030623620025</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.05457500000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.163725</v>
+      </c>
+      <c r="O20">
+        <v>0.002702315454796679</v>
+      </c>
+      <c r="P20">
+        <v>0.003596234138268168</v>
+      </c>
+      <c r="Q20">
+        <v>0.1396726696166667</v>
+      </c>
+      <c r="R20">
+        <v>1.25705402655</v>
+      </c>
+      <c r="S20">
+        <v>3.902049952925177E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.247015737441029E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.559279333333333</v>
+      </c>
+      <c r="H21">
+        <v>7.677838</v>
+      </c>
+      <c r="I21">
+        <v>0.01443965376432621</v>
+      </c>
+      <c r="J21">
+        <v>0.01459030623620025</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="N21">
+        <v>14.911546</v>
+      </c>
+      <c r="O21">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="P21">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="Q21">
+        <v>12.72093716861645</v>
+      </c>
+      <c r="R21">
+        <v>114.488434517548</v>
+      </c>
+      <c r="S21">
+        <v>0.003553861497470857</v>
+      </c>
+      <c r="T21">
+        <v>0.004778813042087392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.7077325</v>
+      </c>
+      <c r="H22">
+        <v>3.415465</v>
+      </c>
+      <c r="I22">
+        <v>0.009635160062801747</v>
+      </c>
+      <c r="J22">
+        <v>0.006490457377327275</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15.06014</v>
+      </c>
+      <c r="N22">
+        <v>30.12028</v>
+      </c>
+      <c r="O22">
+        <v>0.7457123055135437</v>
+      </c>
+      <c r="P22">
+        <v>0.6615946201874847</v>
+      </c>
+      <c r="Q22">
+        <v>25.71869053255</v>
+      </c>
+      <c r="R22">
+        <v>102.8747621302</v>
+      </c>
+      <c r="S22">
+        <v>0.007185057424423912</v>
+      </c>
+      <c r="T22">
+        <v>0.004294051683395896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.7077325</v>
+      </c>
+      <c r="H23">
+        <v>3.415465</v>
+      </c>
+      <c r="I23">
+        <v>0.009635160062801747</v>
+      </c>
+      <c r="J23">
+        <v>0.006490457377327275</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.1104133333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.33124</v>
+      </c>
+      <c r="O23">
+        <v>0.005467185654279137</v>
+      </c>
+      <c r="P23">
+        <v>0.007275715962497773</v>
+      </c>
+      <c r="Q23">
+        <v>0.1885564377666667</v>
+      </c>
+      <c r="R23">
+        <v>1.1313386266</v>
+      </c>
+      <c r="S23">
+        <v>5.267720887203298E-05</v>
+      </c>
+      <c r="T23">
+        <v>4.722272434413149E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.7077325</v>
+      </c>
+      <c r="H24">
+        <v>3.415465</v>
+      </c>
+      <c r="I24">
+        <v>0.009635160062801747</v>
+      </c>
+      <c r="J24">
+        <v>0.006490457377327275</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.05457500000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.163725</v>
+      </c>
+      <c r="O24">
+        <v>0.002702315454796679</v>
+      </c>
+      <c r="P24">
+        <v>0.003596234138268168</v>
+      </c>
+      <c r="Q24">
+        <v>0.09319950118750002</v>
+      </c>
+      <c r="R24">
+        <v>0.5591970071250001</v>
+      </c>
+      <c r="S24">
+        <v>2.60372419471489E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.334120439331883E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.6759238332114</v>
-      </c>
-      <c r="H19">
-        <v>1.6759238332114</v>
-      </c>
-      <c r="I19">
-        <v>0.009562169248360295</v>
-      </c>
-      <c r="J19">
-        <v>0.009562169248360295</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.64741635977894</v>
-      </c>
-      <c r="N19">
-        <v>4.64741635977894</v>
-      </c>
-      <c r="O19">
-        <v>0.2653596395580149</v>
-      </c>
-      <c r="P19">
-        <v>0.2653596395580149</v>
-      </c>
-      <c r="Q19">
-        <v>7.788715840210092</v>
-      </c>
-      <c r="R19">
-        <v>7.788715840210092</v>
-      </c>
-      <c r="S19">
-        <v>0.002537413785137622</v>
-      </c>
-      <c r="T19">
-        <v>0.002537413785137622</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.7077325</v>
+      </c>
+      <c r="H25">
+        <v>3.415465</v>
+      </c>
+      <c r="I25">
+        <v>0.009635160062801747</v>
+      </c>
+      <c r="J25">
+        <v>0.006490457377327275</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="N25">
+        <v>14.911546</v>
+      </c>
+      <c r="O25">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="P25">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="Q25">
+        <v>8.488310576481668</v>
+      </c>
+      <c r="R25">
+        <v>50.92986345889</v>
+      </c>
+      <c r="S25">
+        <v>0.002371388187558653</v>
+      </c>
+      <c r="T25">
+        <v>0.002125841765193928</v>
       </c>
     </row>
   </sheetData>
